--- a/Outils/liste_exos.xlsx
+++ b/Outils/liste_exos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ExercicesCompetences\Outils\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91119F08-EB7D-4985-B31A-72BEF8697016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -999,7 +1000,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1124,6 +1125,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1159,6 +1177,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1334,27 +1369,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0">
-      <selection activeCell="F319" sqref="F319"/>
+    <sheetView tabSelected="1" topLeftCell="B72" workbookViewId="0">
+      <selection activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="2.453125" customWidth="1"/>
+    <col min="5" max="5" width="43.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1377,7 +1409,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1400,7 +1432,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1423,7 +1455,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1446,7 +1478,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1469,7 +1501,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1495,7 +1527,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1521,7 +1553,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1547,7 +1579,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1570,7 +1602,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1593,7 +1625,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1613,7 +1645,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1639,7 +1671,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1665,7 +1697,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1688,7 +1720,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1711,7 +1743,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1734,7 +1766,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1757,7 +1789,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1783,7 +1815,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1806,7 +1838,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1829,7 +1861,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1852,7 +1884,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1875,7 +1907,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1898,7 +1930,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1921,7 +1953,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1944,7 +1976,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1967,7 +1999,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1990,7 +2022,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2013,7 +2045,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -2036,7 +2068,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -2062,7 +2094,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -2088,7 +2120,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -2111,7 +2143,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -2134,7 +2166,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -2157,7 +2189,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -2180,7 +2212,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -2203,7 +2235,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -2226,7 +2258,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -2249,7 +2281,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -2272,7 +2304,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -2295,7 +2327,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -2318,7 +2350,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -2341,7 +2373,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -2364,7 +2396,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -2387,7 +2419,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -2410,7 +2442,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -2436,7 +2468,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -2459,7 +2491,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -2482,7 +2514,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -2505,7 +2537,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -2528,7 +2560,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -2551,7 +2583,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -2574,7 +2606,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -2597,7 +2629,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -2623,7 +2655,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -2646,7 +2678,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -2672,7 +2704,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -2695,7 +2727,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -2718,7 +2750,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -2741,7 +2773,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -2764,7 +2796,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -2787,7 +2819,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -2810,7 +2842,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -2833,7 +2865,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -2856,7 +2888,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -2879,7 +2911,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -2902,7 +2934,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -2925,7 +2957,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -2948,7 +2980,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -2971,7 +3003,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -2994,7 +3026,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -3017,7 +3049,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -3040,7 +3072,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -3063,7 +3095,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -3086,7 +3118,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -3112,7 +3144,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -3135,7 +3167,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -3158,7 +3190,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -3181,7 +3213,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -3204,7 +3236,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -3227,7 +3259,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -3250,7 +3282,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -3273,7 +3305,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -3296,7 +3328,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -3319,7 +3351,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -3342,7 +3374,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -3365,7 +3397,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -3388,7 +3420,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -3411,7 +3443,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -3434,7 +3466,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -3457,7 +3489,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -3480,7 +3512,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -3503,7 +3535,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -3526,7 +3558,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -3549,7 +3581,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -3572,7 +3604,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -3595,7 +3627,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -3618,7 +3650,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -3641,7 +3673,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -3664,7 +3696,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -3687,7 +3719,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -3710,7 +3742,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -3733,7 +3765,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -3756,7 +3788,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -3779,7 +3811,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -3802,7 +3834,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -3825,7 +3857,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -3848,7 +3880,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -3871,7 +3903,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -3894,7 +3926,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -3917,7 +3949,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -3940,7 +3972,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -3963,7 +3995,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -3986,7 +4018,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -4009,7 +4041,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -4032,7 +4064,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -4055,7 +4087,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -4078,7 +4110,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -4101,7 +4133,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -4124,7 +4156,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -4147,7 +4179,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -4170,7 +4202,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -4193,7 +4225,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -4216,7 +4248,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -4239,7 +4271,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -4262,7 +4294,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -4285,7 +4317,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -4308,7 +4340,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -4331,7 +4363,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -4354,7 +4386,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>0</v>
       </c>
@@ -4377,7 +4409,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -4400,7 +4432,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>0</v>
       </c>
@@ -4423,7 +4455,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -4446,7 +4478,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>0</v>
       </c>
@@ -4469,7 +4501,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -4495,7 +4527,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>0</v>
       </c>
@@ -4521,7 +4553,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -4547,7 +4579,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -4573,7 +4605,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>0</v>
       </c>
@@ -4599,7 +4631,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -4625,7 +4657,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>0</v>
       </c>
@@ -4651,7 +4683,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>0</v>
       </c>
@@ -4677,7 +4709,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>0</v>
       </c>
@@ -4703,7 +4735,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>0</v>
       </c>
@@ -4729,7 +4761,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -4752,7 +4784,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>0</v>
       </c>
@@ -4775,7 +4807,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>0</v>
       </c>
@@ -4798,7 +4830,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>0</v>
       </c>
@@ -4821,7 +4853,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -4844,7 +4876,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>0</v>
       </c>
@@ -4867,7 +4899,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>0</v>
       </c>
@@ -4893,7 +4925,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>0</v>
       </c>
@@ -4916,7 +4948,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>0</v>
       </c>
@@ -4939,7 +4971,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>0</v>
       </c>
@@ -4965,7 +4997,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>0</v>
       </c>
@@ -4991,7 +5023,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>0</v>
       </c>
@@ -5017,7 +5049,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>0</v>
       </c>
@@ -5043,7 +5075,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>0</v>
       </c>
@@ -5069,7 +5101,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>0</v>
       </c>
@@ -5095,7 +5127,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>0</v>
       </c>
@@ -5121,7 +5153,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>0</v>
       </c>
@@ -5147,7 +5179,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>0</v>
       </c>
@@ -5173,7 +5205,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>0</v>
       </c>
@@ -5199,7 +5231,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>0</v>
       </c>
@@ -5222,7 +5254,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>0</v>
       </c>
@@ -5248,7 +5280,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>0</v>
       </c>
@@ -5271,7 +5303,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>0</v>
       </c>
@@ -5294,7 +5326,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>0</v>
       </c>
@@ -5317,7 +5349,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -5340,7 +5372,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>0</v>
       </c>
@@ -5363,7 +5395,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>0</v>
       </c>
@@ -5386,7 +5418,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>0</v>
       </c>
@@ -5409,7 +5441,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>0</v>
       </c>
@@ -5432,7 +5464,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -5455,7 +5487,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>0</v>
       </c>
@@ -5478,7 +5510,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>0</v>
       </c>
@@ -5501,7 +5533,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>0</v>
       </c>
@@ -5524,7 +5556,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>0</v>
       </c>
@@ -5547,7 +5579,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>0</v>
       </c>
@@ -5570,7 +5602,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>0</v>
       </c>
@@ -5593,7 +5625,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>0</v>
       </c>
@@ -5616,7 +5648,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>0</v>
       </c>
@@ -5639,7 +5671,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>0</v>
       </c>
@@ -5662,7 +5694,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>0</v>
       </c>
@@ -5685,7 +5717,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>0</v>
       </c>
@@ -5711,7 +5743,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>0</v>
       </c>
@@ -5734,7 +5766,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>0</v>
       </c>
@@ -5757,7 +5789,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>0</v>
       </c>
@@ -5780,7 +5812,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>0</v>
       </c>
@@ -5803,7 +5835,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>0</v>
       </c>
@@ -5826,7 +5858,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>0</v>
       </c>
@@ -5849,7 +5881,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>0</v>
       </c>
@@ -5872,7 +5904,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>0</v>
       </c>
@@ -5895,7 +5927,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>0</v>
       </c>
@@ -5921,7 +5953,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>0</v>
       </c>
@@ -5947,7 +5979,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>0</v>
       </c>
@@ -5973,7 +6005,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>0</v>
       </c>
@@ -5999,7 +6031,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>0</v>
       </c>
@@ -6022,7 +6054,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>0</v>
       </c>
@@ -6045,7 +6077,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>0</v>
       </c>
@@ -6068,7 +6100,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>0</v>
       </c>
@@ -6091,7 +6123,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>0</v>
       </c>
@@ -6114,7 +6146,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>0</v>
       </c>
@@ -6137,7 +6169,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>0</v>
       </c>
@@ -6160,7 +6192,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>0</v>
       </c>
@@ -6183,7 +6215,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>0</v>
       </c>
@@ -6206,7 +6238,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>0</v>
       </c>
@@ -6229,7 +6261,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>0</v>
       </c>
@@ -6252,7 +6284,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>0</v>
       </c>
@@ -6275,7 +6307,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>0</v>
       </c>
@@ -6298,7 +6330,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>0</v>
       </c>
@@ -6321,7 +6353,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>0</v>
       </c>
@@ -6347,7 +6379,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>0</v>
       </c>
@@ -6373,7 +6405,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>0</v>
       </c>
@@ -6399,7 +6431,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>0</v>
       </c>
@@ -6425,7 +6457,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>0</v>
       </c>
@@ -6448,7 +6480,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>0</v>
       </c>
@@ -6471,7 +6503,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>0</v>
       </c>
@@ -6494,7 +6526,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>0</v>
       </c>
@@ -6517,7 +6549,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>0</v>
       </c>
@@ -6540,7 +6572,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>0</v>
       </c>
@@ -6563,7 +6595,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>0</v>
       </c>
@@ -6586,7 +6618,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>0</v>
       </c>
@@ -6609,7 +6641,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>0</v>
       </c>
@@ -6632,7 +6664,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>0</v>
       </c>
@@ -6655,7 +6687,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>0</v>
       </c>
@@ -6678,7 +6710,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>0</v>
       </c>
@@ -6701,7 +6733,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>0</v>
       </c>
@@ -6724,7 +6756,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>0</v>
       </c>
@@ -6747,7 +6779,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>0</v>
       </c>
@@ -6770,7 +6802,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>0</v>
       </c>
@@ -6793,7 +6825,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>0</v>
       </c>
@@ -6816,7 +6848,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>0</v>
       </c>
@@ -6839,7 +6871,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>0</v>
       </c>
@@ -6862,7 +6894,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>0</v>
       </c>
@@ -6888,7 +6920,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>0</v>
       </c>
@@ -6914,7 +6946,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>0</v>
       </c>
@@ -6940,7 +6972,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>0</v>
       </c>
@@ -6966,7 +6998,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>0</v>
       </c>
@@ -6992,7 +7024,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>0</v>
       </c>
@@ -7018,7 +7050,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>0</v>
       </c>
@@ -7044,7 +7076,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>0</v>
       </c>
@@ -7070,7 +7102,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>0</v>
       </c>
@@ -7096,7 +7128,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>0</v>
       </c>
@@ -7122,7 +7154,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>0</v>
       </c>
@@ -7148,7 +7180,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>0</v>
       </c>
@@ -7174,7 +7206,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>0</v>
       </c>
@@ -7200,7 +7232,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>0</v>
       </c>
@@ -7226,7 +7258,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>0</v>
       </c>
@@ -7252,7 +7284,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>0</v>
       </c>
@@ -7278,7 +7310,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>0</v>
       </c>
@@ -7301,7 +7333,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>0</v>
       </c>
@@ -7324,7 +7356,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>0</v>
       </c>
@@ -7347,7 +7379,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>0</v>
       </c>
@@ -7370,7 +7402,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>0</v>
       </c>
@@ -7393,7 +7425,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>0</v>
       </c>
@@ -7416,7 +7448,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>0</v>
       </c>
@@ -7439,7 +7471,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>0</v>
       </c>
@@ -7462,7 +7494,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>0</v>
       </c>
@@ -7485,7 +7517,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>0</v>
       </c>
@@ -7508,7 +7540,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>0</v>
       </c>
@@ -7534,7 +7566,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>0</v>
       </c>
@@ -7560,7 +7592,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>0</v>
       </c>
@@ -7586,7 +7618,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>0</v>
       </c>
@@ -7612,7 +7644,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>0</v>
       </c>
@@ -7638,7 +7670,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>0</v>
       </c>
@@ -7664,7 +7696,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>0</v>
       </c>
@@ -7690,7 +7722,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>0</v>
       </c>
@@ -7716,7 +7748,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>0</v>
       </c>
@@ -7739,7 +7771,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>0</v>
       </c>
@@ -7762,7 +7794,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>0</v>
       </c>
@@ -7785,7 +7817,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>0</v>
       </c>
@@ -7808,7 +7840,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>0</v>
       </c>
@@ -7831,7 +7863,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>0</v>
       </c>
@@ -7854,7 +7886,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>0</v>
       </c>
@@ -7877,7 +7909,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>0</v>
       </c>
@@ -7900,7 +7932,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>0</v>
       </c>
@@ -7923,7 +7955,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>0</v>
       </c>
@@ -7946,7 +7978,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>0</v>
       </c>
@@ -7969,7 +8001,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>0</v>
       </c>
@@ -7992,7 +8024,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>0</v>
       </c>
@@ -8015,7 +8047,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>0</v>
       </c>
@@ -8038,7 +8070,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>0</v>
       </c>
@@ -8061,7 +8093,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>0</v>
       </c>
@@ -8084,7 +8116,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>0</v>
       </c>
@@ -8107,7 +8139,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>0</v>
       </c>
@@ -8130,7 +8162,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>0</v>
       </c>
@@ -8153,7 +8185,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>0</v>
       </c>
@@ -8176,7 +8208,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>0</v>
       </c>
@@ -8199,7 +8231,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>0</v>
       </c>
@@ -8222,7 +8254,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>0</v>
       </c>
@@ -8245,7 +8277,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>0</v>
       </c>
@@ -8268,7 +8300,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>0</v>
       </c>
@@ -8291,7 +8323,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>0</v>
       </c>
@@ -8314,7 +8346,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>0</v>
       </c>
@@ -8337,7 +8369,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>0</v>
       </c>
@@ -8360,7 +8392,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>0</v>
       </c>
@@ -8383,7 +8415,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>0</v>
       </c>
@@ -8406,7 +8438,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>0</v>
       </c>
@@ -8429,7 +8461,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>0</v>
       </c>
@@ -8452,7 +8484,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>0</v>
       </c>
@@ -8475,7 +8507,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>0</v>
       </c>
@@ -8498,7 +8530,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>0</v>
       </c>
@@ -8521,7 +8553,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>0</v>
       </c>
@@ -8544,7 +8576,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>0</v>
       </c>
@@ -8567,7 +8599,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>0</v>
       </c>
@@ -8590,7 +8622,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>0</v>
       </c>
@@ -8613,7 +8645,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>0</v>
       </c>
@@ -8636,7 +8668,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>0</v>
       </c>
@@ -8659,7 +8691,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>0</v>
       </c>
@@ -8682,7 +8714,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>0</v>
       </c>
@@ -8705,7 +8737,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>0</v>
       </c>
@@ -8728,7 +8760,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>0</v>
       </c>
@@ -8751,7 +8783,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>0</v>
       </c>
@@ -8774,7 +8806,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>0</v>
       </c>
@@ -8797,7 +8829,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>0</v>
       </c>
@@ -8820,7 +8852,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>0</v>
       </c>
@@ -8843,7 +8875,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>0</v>
       </c>

--- a/Outils/liste_exos.xlsx
+++ b/Outils/liste_exos.xlsx
@@ -8,14 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ExercicesCompetences\Outils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C43777A-1C8B-476D-A5D5-86FD71A7B3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42C7698-553A-4D0E-A8E9-D797B73C2433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="130" yWindow="-90" windowWidth="19180" windowHeight="9740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$341</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1526,10 +1542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C265" workbookViewId="0">
-      <selection activeCell="F275" sqref="F275"/>
+    <sheetView tabSelected="1" topLeftCell="C321" zoomScale="53" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E352" sqref="E352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1538,7 +1555,7 @@
     <col min="2" max="2" width="6.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.08984375" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="5" max="5" width="38.90625" customWidth="1"/>
     <col min="6" max="6" width="27.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
@@ -1798,7 +1815,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1827,7 +1844,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1856,7 +1873,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1960,7 +1977,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1989,7 +2006,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2024,7 +2041,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -2056,7 +2073,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2088,7 +2105,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2146,7 +2163,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2253,7 +2270,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2282,7 +2299,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2311,7 +2328,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -2340,7 +2357,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -2369,7 +2386,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -2398,7 +2415,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -2531,7 +2548,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -2612,7 +2629,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -2641,7 +2658,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -2670,7 +2687,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -2702,7 +2719,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -2734,7 +2751,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -2948,7 +2965,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -2980,7 +2997,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -3061,7 +3078,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -3272,7 +3289,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -3307,7 +3324,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -3339,7 +3356,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -3374,7 +3391,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -3406,7 +3423,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -3438,7 +3455,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -3470,7 +3487,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -3499,7 +3516,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -3554,7 +3571,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -3635,7 +3652,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -3664,7 +3681,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -3693,7 +3710,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -3722,7 +3739,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -3881,7 +3898,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -4014,7 +4031,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -5005,7 +5022,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -5034,7 +5051,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -5066,7 +5083,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>0</v>
       </c>
@@ -5095,7 +5112,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -5124,7 +5141,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>0</v>
       </c>
@@ -5153,7 +5170,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -5804,7 +5821,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>0</v>
       </c>
@@ -5833,7 +5850,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>0</v>
       </c>
@@ -5862,7 +5879,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>0</v>
       </c>
@@ -5894,7 +5911,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>0</v>
       </c>
@@ -6030,7 +6047,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>0</v>
       </c>
@@ -6059,7 +6076,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>0</v>
       </c>
@@ -6088,7 +6105,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>0</v>
       </c>
@@ -6508,7 +6525,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>0</v>
       </c>
@@ -6563,7 +6580,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>0</v>
       </c>
@@ -6618,7 +6635,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>0</v>
       </c>
@@ -6650,7 +6667,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>0</v>
       </c>
@@ -6679,7 +6696,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>0</v>
       </c>
@@ -6708,7 +6725,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>0</v>
       </c>
@@ -6737,7 +6754,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>0</v>
       </c>
@@ -6769,7 +6786,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>0</v>
       </c>
@@ -6801,7 +6818,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>0</v>
       </c>
@@ -7116,7 +7133,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>0</v>
       </c>
@@ -7197,7 +7214,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>0</v>
       </c>
@@ -7356,7 +7373,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>0</v>
       </c>
@@ -7385,7 +7402,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>0</v>
       </c>
@@ -7414,7 +7431,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>0</v>
       </c>
@@ -7443,7 +7460,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>0</v>
       </c>
@@ -7836,7 +7853,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>0</v>
       </c>
@@ -7865,7 +7882,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>0</v>
       </c>
@@ -7894,7 +7911,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>0</v>
       </c>
@@ -7923,7 +7940,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>0</v>
       </c>
@@ -7952,7 +7969,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>0</v>
       </c>
@@ -8293,7 +8310,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>0</v>
       </c>
@@ -8322,7 +8339,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>0</v>
       </c>
@@ -8377,7 +8394,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>0</v>
       </c>
@@ -10813,6 +10830,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L341" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="8">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Outils/liste_exos.xlsx
+++ b/Outils/liste_exos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ExercicesCompetences\Outils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42C7698-553A-4D0E-A8E9-D797B73C2433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF7A8A9-2ADD-4CBA-841D-76E7C3644519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="130" yWindow="-90" windowWidth="19180" windowHeight="9740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="130" yWindow="-110" windowWidth="19180" windowHeight="9740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,25 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$341</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2862" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2880" uniqueCount="378">
   <si>
     <t>C:</t>
   </si>
@@ -1158,6 +1145,9 @@
   </si>
   <si>
     <t>1017_Dessin2D.tex</t>
+  </si>
+  <si>
+    <t>DDS 4</t>
   </si>
   <si>
     <t>DDS 1</t>
@@ -1545,20 +1535,16 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C321" zoomScale="53" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E352" sqref="E352"/>
+    <sheetView tabSelected="1" topLeftCell="C140" workbookViewId="0">
+      <selection activeCell="E162" sqref="E162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.08984375" customWidth="1"/>
-    <col min="5" max="5" width="38.90625" customWidth="1"/>
-    <col min="6" max="6" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="3.1796875" customWidth="1"/>
+    <col min="3" max="4" width="16.54296875" customWidth="1"/>
+    <col min="5" max="5" width="34.7265625" customWidth="1"/>
+    <col min="6" max="8" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -1584,10 +1570,13 @@
         <v>214</v>
       </c>
       <c r="I1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+        <v>374</v>
+      </c>
+      <c r="J1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1610,6 +1599,9 @@
         <v>215</v>
       </c>
       <c r="I2" t="s">
+        <v>374</v>
+      </c>
+      <c r="J2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1665,7 +1657,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1688,10 +1680,13 @@
         <v>218</v>
       </c>
       <c r="I5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>374</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1714,6 +1709,9 @@
         <v>219</v>
       </c>
       <c r="I6" t="s">
+        <v>374</v>
+      </c>
+      <c r="J6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1838,7 +1836,7 @@
         <v>223</v>
       </c>
       <c r="I11" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J11" t="s">
         <v>60</v>
@@ -1867,7 +1865,7 @@
         <v>224</v>
       </c>
       <c r="I12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J12" t="s">
         <v>60</v>
@@ -1896,7 +1894,7 @@
         <v>225</v>
       </c>
       <c r="I13" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J13" t="s">
         <v>60</v>
@@ -2000,7 +1998,7 @@
         <v>228</v>
       </c>
       <c r="I17" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J17" t="s">
         <v>60</v>
@@ -2029,13 +2027,13 @@
         <v>229</v>
       </c>
       <c r="I18" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J18" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K18" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L18" t="s">
         <v>60</v>
@@ -2064,10 +2062,10 @@
         <v>230</v>
       </c>
       <c r="I19" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J19" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K19" t="s">
         <v>60</v>
@@ -2096,10 +2094,10 @@
         <v>231</v>
       </c>
       <c r="I20" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J20" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K20" t="s">
         <v>60</v>
@@ -2128,10 +2126,10 @@
         <v>232</v>
       </c>
       <c r="I21" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J21" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K21" t="s">
         <v>60</v>
@@ -2186,7 +2184,7 @@
         <v>223</v>
       </c>
       <c r="I23" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J23" t="s">
         <v>60</v>
@@ -2293,7 +2291,7 @@
         <v>237</v>
       </c>
       <c r="I27" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J27" t="s">
         <v>60</v>
@@ -2322,7 +2320,7 @@
         <v>238</v>
       </c>
       <c r="I28" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J28" t="s">
         <v>60</v>
@@ -2351,7 +2349,7 @@
         <v>239</v>
       </c>
       <c r="I29" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J29" t="s">
         <v>60</v>
@@ -2380,7 +2378,7 @@
         <v>240</v>
       </c>
       <c r="I30" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J30" t="s">
         <v>60</v>
@@ -2409,7 +2407,7 @@
         <v>241</v>
       </c>
       <c r="I31" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J31" t="s">
         <v>60</v>
@@ -2438,7 +2436,7 @@
         <v>242</v>
       </c>
       <c r="I32" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J32" t="s">
         <v>60</v>
@@ -2571,7 +2569,7 @@
         <v>218</v>
       </c>
       <c r="I37" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J37" t="s">
         <v>60</v>
@@ -2652,7 +2650,7 @@
         <v>249</v>
       </c>
       <c r="I40" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J40" t="s">
         <v>60</v>
@@ -2681,7 +2679,7 @@
         <v>250</v>
       </c>
       <c r="I41" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J41" t="s">
         <v>60</v>
@@ -2710,10 +2708,10 @@
         <v>251</v>
       </c>
       <c r="I42" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J42" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K42" t="s">
         <v>60</v>
@@ -2742,10 +2740,10 @@
         <v>252</v>
       </c>
       <c r="I43" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J43" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K43" t="s">
         <v>60</v>
@@ -2774,10 +2772,10 @@
         <v>253</v>
       </c>
       <c r="I44" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J44" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K44" t="s">
         <v>60</v>
@@ -2988,10 +2986,10 @@
         <v>261</v>
       </c>
       <c r="I52" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J52" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K52" t="s">
         <v>60</v>
@@ -3020,7 +3018,7 @@
         <v>262</v>
       </c>
       <c r="I53" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J53" t="s">
         <v>60</v>
@@ -3101,7 +3099,7 @@
         <v>265</v>
       </c>
       <c r="I56" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J56" t="s">
         <v>60</v>
@@ -3312,13 +3310,13 @@
         <v>249</v>
       </c>
       <c r="I64" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J64" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K64" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L64" t="s">
         <v>60</v>
@@ -3347,10 +3345,10 @@
         <v>273</v>
       </c>
       <c r="I65" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J65" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K65" t="s">
         <v>60</v>
@@ -3379,13 +3377,13 @@
         <v>250</v>
       </c>
       <c r="I66" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J66" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K66" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L66" t="s">
         <v>60</v>
@@ -3414,10 +3412,10 @@
         <v>274</v>
       </c>
       <c r="I67" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J67" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K67" t="s">
         <v>60</v>
@@ -3446,10 +3444,10 @@
         <v>251</v>
       </c>
       <c r="I68" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J68" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K68" t="s">
         <v>60</v>
@@ -3478,10 +3476,10 @@
         <v>275</v>
       </c>
       <c r="I69" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J69" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K69" t="s">
         <v>60</v>
@@ -3510,7 +3508,7 @@
         <v>252</v>
       </c>
       <c r="I70" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J70" t="s">
         <v>60</v>
@@ -3539,7 +3537,7 @@
         <v>276</v>
       </c>
       <c r="I71" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J71" t="s">
         <v>60</v>
@@ -3594,7 +3592,7 @@
         <v>277</v>
       </c>
       <c r="I73" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J73" t="s">
         <v>60</v>
@@ -3675,7 +3673,7 @@
         <v>255</v>
       </c>
       <c r="I76" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J76" t="s">
         <v>60</v>
@@ -3704,7 +3702,7 @@
         <v>279</v>
       </c>
       <c r="I77" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J77" t="s">
         <v>60</v>
@@ -3733,7 +3731,7 @@
         <v>256</v>
       </c>
       <c r="I78" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J78" t="s">
         <v>60</v>
@@ -3762,7 +3760,7 @@
         <v>280</v>
       </c>
       <c r="I79" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J79" t="s">
         <v>60</v>
@@ -3921,7 +3919,7 @@
         <v>265</v>
       </c>
       <c r="I85" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J85" t="s">
         <v>60</v>
@@ -4054,13 +4052,13 @@
         <v>270</v>
       </c>
       <c r="I90" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J90" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -4086,7 +4084,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -4112,7 +4110,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -4138,7 +4136,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -4164,7 +4162,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -4190,7 +4188,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -4216,7 +4214,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -4242,7 +4240,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -4268,7 +4266,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -4294,7 +4292,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -4320,7 +4318,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -4346,7 +4344,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -4372,7 +4370,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -4398,7 +4396,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -4424,7 +4422,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -4450,7 +4448,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -4476,7 +4474,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -4502,7 +4500,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -4528,7 +4526,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -4554,7 +4552,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -4580,7 +4578,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -4606,7 +4604,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -4632,7 +4630,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -4658,7 +4656,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -4684,7 +4682,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -4710,7 +4708,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -4736,7 +4734,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -4814,7 +4812,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -4837,10 +4835,13 @@
         <v>281</v>
       </c>
       <c r="I120" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+        <v>374</v>
+      </c>
+      <c r="J120" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -4863,10 +4864,13 @@
         <v>282</v>
       </c>
       <c r="I121" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+        <v>374</v>
+      </c>
+      <c r="J121" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -4889,10 +4893,13 @@
         <v>283</v>
       </c>
       <c r="I122" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+        <v>374</v>
+      </c>
+      <c r="J122" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -4915,6 +4922,9 @@
         <v>284</v>
       </c>
       <c r="I123" t="s">
+        <v>374</v>
+      </c>
+      <c r="J123" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5045,7 +5055,7 @@
         <v>247</v>
       </c>
       <c r="I128" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J128" t="s">
         <v>60</v>
@@ -5074,10 +5084,10 @@
         <v>289</v>
       </c>
       <c r="I129" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J129" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K129" t="s">
         <v>60</v>
@@ -5106,7 +5116,7 @@
         <v>236</v>
       </c>
       <c r="I130" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J130" t="s">
         <v>60</v>
@@ -5135,7 +5145,7 @@
         <v>290</v>
       </c>
       <c r="I131" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J131" t="s">
         <v>60</v>
@@ -5164,7 +5174,7 @@
         <v>291</v>
       </c>
       <c r="I132" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J132" t="s">
         <v>60</v>
@@ -5193,7 +5203,7 @@
         <v>292</v>
       </c>
       <c r="I133" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J133" t="s">
         <v>60</v>
@@ -5589,7 +5599,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -5618,7 +5628,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>0</v>
       </c>
@@ -5647,7 +5657,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>0</v>
       </c>
@@ -5676,7 +5686,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>0</v>
       </c>
@@ -5705,7 +5715,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>0</v>
       </c>
@@ -5734,7 +5744,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>0</v>
       </c>
@@ -5763,7 +5773,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>0</v>
       </c>
@@ -5792,7 +5802,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>0</v>
       </c>
@@ -5844,7 +5854,7 @@
         <v>249</v>
       </c>
       <c r="I157" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J157" t="s">
         <v>60</v>
@@ -5873,7 +5883,7 @@
         <v>250</v>
       </c>
       <c r="I158" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J158" t="s">
         <v>60</v>
@@ -5902,10 +5912,10 @@
         <v>251</v>
       </c>
       <c r="I159" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J159" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K159" t="s">
         <v>60</v>
@@ -5934,10 +5944,10 @@
         <v>252</v>
       </c>
       <c r="I160" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J160" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K160" t="s">
         <v>60</v>
@@ -6070,7 +6080,7 @@
         <v>265</v>
       </c>
       <c r="I165" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J165" t="s">
         <v>60</v>
@@ -6099,7 +6109,7 @@
         <v>295</v>
       </c>
       <c r="I166" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J166" t="s">
         <v>60</v>
@@ -6128,13 +6138,13 @@
         <v>296</v>
       </c>
       <c r="I167" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J167" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>0</v>
       </c>
@@ -6163,7 +6173,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -6192,7 +6202,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>0</v>
       </c>
@@ -6221,7 +6231,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>0</v>
       </c>
@@ -6250,7 +6260,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>0</v>
       </c>
@@ -6279,7 +6289,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>0</v>
       </c>
@@ -6308,7 +6318,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -6337,7 +6347,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>0</v>
       </c>
@@ -6366,7 +6376,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>0</v>
       </c>
@@ -6548,7 +6558,7 @@
         <v>302</v>
       </c>
       <c r="I182" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J182" t="s">
         <v>60</v>
@@ -6603,7 +6613,7 @@
         <v>304</v>
       </c>
       <c r="I184" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J184" t="s">
         <v>60</v>
@@ -6658,10 +6668,10 @@
         <v>306</v>
       </c>
       <c r="I186" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J186" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K186" t="s">
         <v>60</v>
@@ -6690,7 +6700,7 @@
         <v>247</v>
       </c>
       <c r="I187" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J187" t="s">
         <v>60</v>
@@ -6719,7 +6729,7 @@
         <v>307</v>
       </c>
       <c r="I188" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J188" t="s">
         <v>60</v>
@@ -6748,7 +6758,7 @@
         <v>308</v>
       </c>
       <c r="I189" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J189" t="s">
         <v>60</v>
@@ -6777,10 +6787,10 @@
         <v>309</v>
       </c>
       <c r="I190" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J190" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K190" t="s">
         <v>60</v>
@@ -6809,10 +6819,10 @@
         <v>306</v>
       </c>
       <c r="I191" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J191" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K191" t="s">
         <v>60</v>
@@ -6841,7 +6851,7 @@
         <v>247</v>
       </c>
       <c r="I192" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J192" t="s">
         <v>60</v>
@@ -7156,7 +7166,7 @@
         <v>265</v>
       </c>
       <c r="I204" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J204" t="s">
         <v>60</v>
@@ -7237,7 +7247,7 @@
         <v>268</v>
       </c>
       <c r="I207" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J207" t="s">
         <v>60</v>
@@ -7396,7 +7406,7 @@
         <v>319</v>
       </c>
       <c r="I213" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J213" t="s">
         <v>60</v>
@@ -7425,7 +7435,7 @@
         <v>320</v>
       </c>
       <c r="I214" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J214" t="s">
         <v>60</v>
@@ -7454,7 +7464,7 @@
         <v>321</v>
       </c>
       <c r="I215" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J215" t="s">
         <v>60</v>
@@ -7483,7 +7493,7 @@
         <v>322</v>
       </c>
       <c r="I216" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J216" t="s">
         <v>60</v>
@@ -7541,7 +7551,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>0</v>
       </c>
@@ -7564,10 +7574,13 @@
         <v>325</v>
       </c>
       <c r="I219" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
+        <v>374</v>
+      </c>
+      <c r="J219" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>0</v>
       </c>
@@ -7590,10 +7603,13 @@
         <v>326</v>
       </c>
       <c r="I220" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
+        <v>374</v>
+      </c>
+      <c r="J220" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>0</v>
       </c>
@@ -7616,10 +7632,13 @@
         <v>327</v>
       </c>
       <c r="I221" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
+        <v>374</v>
+      </c>
+      <c r="J221" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>0</v>
       </c>
@@ -7642,6 +7661,9 @@
         <v>328</v>
       </c>
       <c r="I222" t="s">
+        <v>374</v>
+      </c>
+      <c r="J222" t="s">
         <v>60</v>
       </c>
     </row>
@@ -7876,7 +7898,7 @@
         <v>249</v>
       </c>
       <c r="I231" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J231" t="s">
         <v>60</v>
@@ -7905,7 +7927,7 @@
         <v>250</v>
       </c>
       <c r="I232" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J232" t="s">
         <v>60</v>
@@ -7934,7 +7956,7 @@
         <v>265</v>
       </c>
       <c r="I233" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J233" t="s">
         <v>60</v>
@@ -7963,7 +7985,7 @@
         <v>337</v>
       </c>
       <c r="I234" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J234" t="s">
         <v>60</v>
@@ -7992,13 +8014,13 @@
         <v>295</v>
       </c>
       <c r="I235" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J235" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>0</v>
       </c>
@@ -8021,10 +8043,13 @@
         <v>338</v>
       </c>
       <c r="I236" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
+        <v>374</v>
+      </c>
+      <c r="J236" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>0</v>
       </c>
@@ -8047,10 +8072,13 @@
         <v>296</v>
       </c>
       <c r="I237" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
+        <v>374</v>
+      </c>
+      <c r="J237" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>0</v>
       </c>
@@ -8073,10 +8101,13 @@
         <v>339</v>
       </c>
       <c r="I238" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
+        <v>374</v>
+      </c>
+      <c r="J238" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>0</v>
       </c>
@@ -8099,6 +8130,9 @@
         <v>247</v>
       </c>
       <c r="I239" t="s">
+        <v>374</v>
+      </c>
+      <c r="J239" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8333,7 +8367,7 @@
         <v>255</v>
       </c>
       <c r="I248" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J248" t="s">
         <v>60</v>
@@ -8362,7 +8396,7 @@
         <v>256</v>
       </c>
       <c r="I249" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J249" t="s">
         <v>60</v>
@@ -8417,7 +8451,7 @@
         <v>270</v>
       </c>
       <c r="I251" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J251" t="s">
         <v>60</v>
@@ -8475,7 +8509,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>0</v>
       </c>
@@ -8504,7 +8538,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>0</v>
       </c>
@@ -8533,7 +8567,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>0</v>
       </c>
@@ -8562,7 +8596,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>0</v>
       </c>
@@ -8591,7 +8625,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>0</v>
       </c>
@@ -8620,7 +8654,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>0</v>
       </c>
@@ -8649,7 +8683,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>0</v>
       </c>
@@ -8678,7 +8712,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>0</v>
       </c>
@@ -8707,7 +8741,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>0</v>
       </c>
@@ -8736,7 +8770,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>0</v>
       </c>
@@ -8765,7 +8799,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>0</v>
       </c>
@@ -8794,7 +8828,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>0</v>
       </c>
@@ -8823,7 +8857,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>0</v>
       </c>
@@ -8852,7 +8886,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>0</v>
       </c>
@@ -8881,7 +8915,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>0</v>
       </c>
@@ -8910,7 +8944,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>0</v>
       </c>
@@ -9199,7 +9233,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>0</v>
       </c>
@@ -9228,7 +9262,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>0</v>
       </c>
@@ -9257,7 +9291,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>0</v>
       </c>
@@ -9286,7 +9320,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>0</v>
       </c>
@@ -9315,7 +9349,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>0</v>
       </c>
@@ -9344,7 +9378,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>0</v>
       </c>
@@ -9373,7 +9407,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>0</v>
       </c>
@@ -9402,7 +9436,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>0</v>
       </c>
@@ -9457,7 +9491,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>0</v>
       </c>
@@ -9483,7 +9517,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>0</v>
       </c>
@@ -9509,7 +9543,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>0</v>
       </c>
@@ -9532,10 +9566,13 @@
         <v>308</v>
       </c>
       <c r="I291" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
+        <v>374</v>
+      </c>
+      <c r="J291" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>0</v>
       </c>
@@ -9558,10 +9595,13 @@
         <v>340</v>
       </c>
       <c r="I292" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
+        <v>374</v>
+      </c>
+      <c r="J292" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>0</v>
       </c>
@@ -9587,7 +9627,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>0</v>
       </c>
@@ -9613,7 +9653,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>0</v>
       </c>
@@ -9639,7 +9679,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>0</v>
       </c>
@@ -9665,7 +9705,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>0</v>
       </c>
@@ -9691,7 +9731,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>0</v>
       </c>
@@ -9717,7 +9757,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>0</v>
       </c>
@@ -9743,7 +9783,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>0</v>
       </c>
@@ -9769,7 +9809,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>0</v>
       </c>
@@ -9795,7 +9835,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>0</v>
       </c>
@@ -9821,7 +9861,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>0</v>
       </c>
@@ -9847,7 +9887,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>0</v>
       </c>
@@ -10831,6 +10871,159 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:L341" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="A3_01_ChaineFonctionnelle"/>
+        <filter val="A3_06_ChaineInfo"/>
+        <filter val="A5_05_Specifications"/>
+        <filter val="ALL_EXOS.tex"/>
+        <filter val="B2_06_ModeleComportement"/>
+        <filter val="B2_07_ModelisationSchemaBlocs"/>
+        <filter val="B2_10_CartacteristiquesSolides"/>
+        <filter val="B2_12_ModeliserSchemasCinematiques"/>
+        <filter val="B2_13_ModeliserCinematique"/>
+        <filter val="B2_14_ModeliserAction"/>
+        <filter val="B2_14_ModeliserAction_ModeleGlobal"/>
+        <filter val="B2_16_Hyperstatisme"/>
+        <filter val="B2_17_Sequentiel"/>
+        <filter val="B2_22_ModeliserConvertisseur"/>
+        <filter val="C1_02_ProposerDemarcheReglageCorrecteur"/>
+        <filter val="C1_05_ProposerDemarcheActionMecaLoiMvt_PFD"/>
+        <filter val="C1_05_ProposerDemarcheActionMecaLoiMvt_PFS"/>
+        <filter val="C1_06_ProposerDemarcheGrandeursElectriques"/>
+        <filter val="C2_02_DiagrammeBode"/>
+        <filter val="C2_03_PerformancesSLCI"/>
+        <filter val="C2_04_Correcteurs"/>
+        <filter val="C2_06_DeterminerLoisES"/>
+        <filter val="C2_06_Transmetteurs"/>
+        <filter val="C2_08_PFD"/>
+        <filter val="C2_08_TorseurDynamique"/>
+        <filter val="C2_09_DeterminerLoiMouvement"/>
+        <filter val="C2_09_DeterminerLoiMouvement_TEC"/>
+        <filter val="C2_09_DeterminerLoiMouvement1D"/>
+        <filter val="C2_10_RdM_Cohesion"/>
+        <filter val="C2_10_RdM_Deformation"/>
+        <filter val="C3_02_Euler"/>
+        <filter val="E2_05_Dessin2D"/>
+        <filter val="test.tex"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters blank="1">
+        <filter val="01_T"/>
+        <filter val="01_T_02"/>
+        <filter val="02_R"/>
+        <filter val="03_TT"/>
+        <filter val="04_RR"/>
+        <filter val="05_RT"/>
+        <filter val="06_TR"/>
+        <filter val="06_TR_02"/>
+        <filter val="07_RR3D"/>
+        <filter val="08_RR3D"/>
+        <filter val="09_RT_RSG"/>
+        <filter val="10_PompePalette"/>
+        <filter val="1000_Dessin2D"/>
+        <filter val="1001_Dessin2D"/>
+        <filter val="1002_Dessin2D"/>
+        <filter val="1003_Dessin2D"/>
+        <filter val="1004_Dessin2D"/>
+        <filter val="1005_Dessin2D"/>
+        <filter val="1006_Dessin2D"/>
+        <filter val="1007_Dessin2D"/>
+        <filter val="1008_Dessin2D"/>
+        <filter val="1009_Dessin2D"/>
+        <filter val="1010_Dessin2D"/>
+        <filter val="1011_Dessin2D"/>
+        <filter val="1012_Dessin2D"/>
+        <filter val="1013_Dessin2D"/>
+        <filter val="1014_Dessin2D"/>
+        <filter val="1015_Dessin2D"/>
+        <filter val="1016_Dessin2D"/>
+        <filter val="1017_Dessin2D"/>
+        <filter val="1018_BorneReglable"/>
+        <filter val="1019_RobotPeinture"/>
+        <filter val="1020_PompeEnsieta"/>
+        <filter val="1021_Euler"/>
+        <filter val="1022_Euler"/>
+        <filter val="1023_Euler"/>
+        <filter val="11_PompePistonsRadiaux"/>
+        <filter val="12_BielleManivelle"/>
+        <filter val="13_TransfoMouvement"/>
+        <filter val="14_Sympact"/>
+        <filter val="15_SympactGalet"/>
+        <filter val="16_Poussoir"/>
+        <filter val="17_4Barres"/>
+        <filter val="18_Maxpid"/>
+        <filter val="19_Graham"/>
+        <filter val="20_VariateurBilles"/>
+        <filter val="25_Cheville"/>
+        <filter val="26_RoueMotrice"/>
+        <filter val="31_Redex"/>
+        <filter val="32_Broyeur"/>
+        <filter val="33_Centrifugeuse"/>
+        <filter val="34_ControlX"/>
+        <filter val="35_Vario"/>
+        <filter val="36_VisEcrou"/>
+        <filter val="37_VisEcrou"/>
+        <filter val="38_Treuil"/>
+        <filter val="39_SeineMusicale"/>
+        <filter val="42_Cylindre"/>
+        <filter val="43_Cylindre"/>
+        <filter val="44_Disque"/>
+        <filter val="45_Disque"/>
+        <filter val="46_RR_RSG"/>
+        <filter val="49_ElevateurBateaux"/>
+        <filter val="50_BancBalafre"/>
+        <filter val="500_Vierge.tex"/>
+        <filter val="504_Divers"/>
+        <filter val="506_Divers"/>
+        <filter val="507_Divers"/>
+        <filter val="509_Divers"/>
+        <filter val="511_Divers"/>
+        <filter val="512_Divers"/>
+        <filter val="513_Divers_Tabouret"/>
+        <filter val="514_Divers_Tabouret"/>
+        <filter val="518_MAM"/>
+        <filter val="519_MAM"/>
+        <filter val="52_Verin"/>
+        <filter val="520_MAM"/>
+        <filter val="521_MAM"/>
+        <filter val="522_RdM"/>
+        <filter val="523_RdM"/>
+        <filter val="524_RdM"/>
+        <filter val="525_RdM"/>
+        <filter val="526_RdM"/>
+        <filter val="527_RdM"/>
+        <filter val="528_BrocheFraisage"/>
+        <filter val="529_Passerelle"/>
+        <filter val="53_BancEpreuveHydraulique"/>
+        <filter val="530_BancHelico"/>
+        <filter val="531_RdM"/>
+        <filter val="532_RdM"/>
+        <filter val="534_CircuitElec"/>
+        <filter val="535_CircuitElec"/>
+        <filter val="536_CircuitElec"/>
+        <filter val="537_CircuitElec"/>
+        <filter val="538_CircuitElec"/>
+        <filter val="54_FauteuilRoulant"/>
+        <filter val="60_Escalier"/>
+        <filter val="63_BancHydraulique"/>
+        <filter val="64_EPAS"/>
+        <filter val="65_Eclipse"/>
+        <filter val="65_Eclipse_02"/>
+        <filter val="65_Eclipse_03"/>
+        <filter val="66_Micromanipulateur"/>
+        <filter val="67_PompeTurbo"/>
+        <filter val="68_Roburoc"/>
+        <filter val="70_Hublex"/>
+        <filter val="71_Robovolc"/>
+        <filter val="74_Chariot"/>
+        <filter val="75_TrainA380"/>
+        <filter val="76_FixationSki"/>
+        <filter val="82_MAV"/>
+        <filter val="83_Roburoc"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="8">
       <filters blank="1"/>
     </filterColumn>
